--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:56:40+00:00</t>
+    <t>2024-05-28T13:57:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:57:14+00:00</t>
+    <t>2024-05-28T14:06:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:06:34+00:00</t>
+    <t>2024-05-28T14:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Roles des partic" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from participant-role" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:07:04+00:00</t>
+    <t>2024-06-25T13:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,6 +110,9 @@
   </si>
   <si>
     <t>http://interop.esante.gouv.fr/ig/fhir/cds/CodeSystem/careteam-roles-cs</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
   </si>
 </sst>
 </file>
@@ -412,4 +416,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T13:31:21+00:00</t>
+    <t>2024-06-25T13:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Roles des partic" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from participant-role" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from TRE_R259-HL7Part" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from TRE_R260-HL7Role" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T13:32:08+00:00</t>
+    <t>2024-06-26T15:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,22 +97,31 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>PCP</t>
+  </si>
+  <si>
+    <t>Médecin traitant</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R259-HL7ParticipationFunction/FHIR/TRE-R259-HL7ParticipationFunction</t>
+  </si>
+  <si>
     <t>Codes</t>
   </si>
   <si>
     <t>All codes</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/CodeSystem/careteam-roles-cs</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R260-HL7RoleClass/FHIR/TRE-R260-HL7RoleClass</t>
   </si>
 </sst>
 </file>
@@ -391,26 +400,32 @@
       <c r="A1" t="s" s="1">
         <v>27</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -432,28 +447,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T15:38:12+00:00</t>
+    <t>2024-06-26T15:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-careteam-participant-roles/ig/ValueSet-careteam-roles-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T15:38:37+00:00</t>
+    <t>2024-06-26T15:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
